--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.64525366666667</v>
+        <v>22.320355</v>
       </c>
       <c r="H2">
-        <v>130.935761</v>
+        <v>66.961065</v>
       </c>
       <c r="I2">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J2">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.147833</v>
+        <v>0.1346283333333333</v>
       </c>
       <c r="N2">
-        <v>0.443499</v>
+        <v>0.403885</v>
       </c>
       <c r="O2">
-        <v>0.003725579965323047</v>
+        <v>0.002202644180850053</v>
       </c>
       <c r="P2">
-        <v>0.00373094073859636</v>
+        <v>0.002209497412631127</v>
       </c>
       <c r="Q2">
-        <v>6.452208785304333</v>
+        <v>3.004952193058334</v>
       </c>
       <c r="R2">
-        <v>58.069879067739</v>
+        <v>27.044569737525</v>
       </c>
       <c r="S2">
-        <v>0.002019711415576575</v>
+        <v>0.001056324059797144</v>
       </c>
       <c r="T2">
-        <v>0.002038248397968796</v>
+        <v>0.001062534719406226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.64525366666667</v>
+        <v>22.320355</v>
       </c>
       <c r="H3">
-        <v>130.935761</v>
+        <v>66.961065</v>
       </c>
       <c r="I3">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J3">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>19.057484</v>
+        <v>0.147833</v>
       </c>
       <c r="N3">
-        <v>57.172452</v>
+        <v>0.443499</v>
       </c>
       <c r="O3">
-        <v>0.4802728793967823</v>
+        <v>0.002418684753241189</v>
       </c>
       <c r="P3">
-        <v>0.4809639487174604</v>
+        <v>0.00242621016627132</v>
       </c>
       <c r="Q3">
-        <v>831.7687234284414</v>
+        <v>3.299685040715</v>
       </c>
       <c r="R3">
-        <v>7485.918510855973</v>
+        <v>29.697165366435</v>
       </c>
       <c r="S3">
-        <v>0.2603655339942227</v>
+        <v>0.001159930832281401</v>
       </c>
       <c r="T3">
-        <v>0.2627551780205771</v>
+        <v>0.001166750648134844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.64525366666667</v>
+        <v>22.320355</v>
       </c>
       <c r="H4">
-        <v>130.935761</v>
+        <v>66.961065</v>
       </c>
       <c r="I4">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J4">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.171044</v>
+        <v>26.727223</v>
       </c>
       <c r="N4">
-        <v>0.342088</v>
+        <v>80.181669</v>
       </c>
       <c r="O4">
-        <v>0.004310526740231986</v>
+        <v>0.4372821140515125</v>
       </c>
       <c r="P4">
-        <v>0.00287781946607535</v>
+        <v>0.438642658667555</v>
       </c>
       <c r="Q4">
-        <v>7.465258768161334</v>
+        <v>596.5611055241651</v>
       </c>
       <c r="R4">
-        <v>44.791552608968</v>
+        <v>5369.049949717485</v>
       </c>
       <c r="S4">
-        <v>0.002336822761940025</v>
+        <v>0.2097077784997978</v>
       </c>
       <c r="T4">
-        <v>0.00157218013561327</v>
+        <v>0.2109407558399986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.64525366666667</v>
+        <v>22.320355</v>
       </c>
       <c r="H5">
-        <v>130.935761</v>
+        <v>66.961065</v>
       </c>
       <c r="I5">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J5">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>20.30417233333333</v>
+        <v>0.568742</v>
       </c>
       <c r="N5">
-        <v>60.912517</v>
+        <v>1.137484</v>
       </c>
       <c r="O5">
-        <v>0.5116910138976627</v>
+        <v>0.009305145697698759</v>
       </c>
       <c r="P5">
-        <v>0.512427291077868</v>
+        <v>0.006222731606544697</v>
       </c>
       <c r="Q5">
-        <v>886.1807519800486</v>
+        <v>12.69452334341</v>
       </c>
       <c r="R5">
-        <v>7975.626767820438</v>
+        <v>76.16714006046</v>
       </c>
       <c r="S5">
-        <v>0.2773979331101134</v>
+        <v>0.004462477129013067</v>
       </c>
       <c r="T5">
-        <v>0.2799439010944716</v>
+        <v>0.002992476182004955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.161567</v>
+        <v>22.320355</v>
       </c>
       <c r="H6">
-        <v>0.484701</v>
+        <v>66.961065</v>
       </c>
       <c r="I6">
-        <v>0.002006832241508989</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J6">
-        <v>0.00202234105216526</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.147833</v>
+        <v>33.542809</v>
       </c>
       <c r="N6">
-        <v>0.443499</v>
+        <v>100.628427</v>
       </c>
       <c r="O6">
-        <v>0.003725579965323047</v>
+        <v>0.5487914113166975</v>
       </c>
       <c r="P6">
-        <v>0.00373094073859636</v>
+        <v>0.5504989021469979</v>
       </c>
       <c r="Q6">
-        <v>0.023884934311</v>
+        <v>748.687404577195</v>
       </c>
       <c r="R6">
-        <v>0.214964408799</v>
+        <v>6738.186641194756</v>
       </c>
       <c r="S6">
-        <v>7.476613992730232E-06</v>
+        <v>0.2631843929327422</v>
       </c>
       <c r="T6">
-        <v>7.545234618859193E-06</v>
+        <v>0.2647317861439144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>0.484701</v>
       </c>
       <c r="I7">
-        <v>0.002006832241508989</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J7">
-        <v>0.00202234105216526</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>19.057484</v>
+        <v>0.1346283333333333</v>
       </c>
       <c r="N7">
-        <v>57.172452</v>
+        <v>0.403885</v>
       </c>
       <c r="O7">
-        <v>0.4802728793967823</v>
+        <v>0.002202644180850053</v>
       </c>
       <c r="P7">
-        <v>0.4809639487174604</v>
+        <v>0.002209497412631127</v>
       </c>
       <c r="Q7">
-        <v>3.079060517428</v>
+        <v>0.02175149593166667</v>
       </c>
       <c r="R7">
-        <v>27.711544656852</v>
+        <v>0.195763463385</v>
       </c>
       <c r="S7">
-        <v>0.0009638270990958211</v>
+        <v>7.646254253986786E-06</v>
       </c>
       <c r="T7">
-        <v>0.0009726731381028268</v>
+        <v>7.691210422518175E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>0.484701</v>
       </c>
       <c r="I8">
-        <v>0.002006832241508989</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J8">
-        <v>0.00202234105216526</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.171044</v>
+        <v>0.147833</v>
       </c>
       <c r="N8">
-        <v>0.342088</v>
+        <v>0.443499</v>
       </c>
       <c r="O8">
-        <v>0.004310526740231986</v>
+        <v>0.002418684753241189</v>
       </c>
       <c r="P8">
-        <v>0.00287781946607535</v>
+        <v>0.00242621016627132</v>
       </c>
       <c r="Q8">
-        <v>0.027635065948</v>
+        <v>0.023884934311</v>
       </c>
       <c r="R8">
-        <v>0.165810395688</v>
+        <v>0.214964408799</v>
       </c>
       <c r="S8">
-        <v>8.650504040184192E-06</v>
+        <v>8.396217030562871E-06</v>
       </c>
       <c r="T8">
-        <v>5.819932446964489E-06</v>
+        <v>8.445582606871729E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>0.484701</v>
       </c>
       <c r="I9">
-        <v>0.002006832241508989</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J9">
-        <v>0.00202234105216526</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.30417233333333</v>
+        <v>26.727223</v>
       </c>
       <c r="N9">
-        <v>60.912517</v>
+        <v>80.181669</v>
       </c>
       <c r="O9">
-        <v>0.5116910138976627</v>
+        <v>0.4372821140515125</v>
       </c>
       <c r="P9">
-        <v>0.512427291077868</v>
+        <v>0.438642658667555</v>
       </c>
       <c r="Q9">
-        <v>3.280484211379667</v>
+        <v>4.318237238441</v>
       </c>
       <c r="R9">
-        <v>29.524357902417</v>
+        <v>38.864135145969</v>
       </c>
       <c r="S9">
-        <v>0.001026878024380254</v>
+        <v>0.001517980186644739</v>
       </c>
       <c r="T9">
-        <v>0.001036302746996609</v>
+        <v>0.001526905154456596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.44622</v>
+        <v>0.161567</v>
       </c>
       <c r="H10">
-        <v>31.33866</v>
+        <v>0.484701</v>
       </c>
       <c r="I10">
-        <v>0.1297530504242576</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J10">
-        <v>0.1307557827152189</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.147833</v>
+        <v>0.568742</v>
       </c>
       <c r="N10">
-        <v>0.443499</v>
+        <v>1.137484</v>
       </c>
       <c r="O10">
-        <v>0.003725579965323047</v>
+        <v>0.009305145697698759</v>
       </c>
       <c r="P10">
-        <v>0.00373094073859636</v>
+        <v>0.006222731606544697</v>
       </c>
       <c r="Q10">
-        <v>1.54429604126</v>
+        <v>0.091889938714</v>
       </c>
       <c r="R10">
-        <v>13.89866437134</v>
+        <v>0.5513396322840001</v>
       </c>
       <c r="S10">
-        <v>0.0004834053651001652</v>
+        <v>3.230186268557351E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004878420765392641</v>
+        <v>2.166118770503402E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.44622</v>
+        <v>0.161567</v>
       </c>
       <c r="H11">
-        <v>31.33866</v>
+        <v>0.484701</v>
       </c>
       <c r="I11">
-        <v>0.1297530504242576</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J11">
-        <v>0.1307557827152189</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.057484</v>
+        <v>33.542809</v>
       </c>
       <c r="N11">
-        <v>57.172452</v>
+        <v>100.628427</v>
       </c>
       <c r="O11">
-        <v>0.4802728793967823</v>
+        <v>0.5487914113166975</v>
       </c>
       <c r="P11">
-        <v>0.4809639487174604</v>
+        <v>0.5504989021469979</v>
       </c>
       <c r="Q11">
-        <v>199.07867051048</v>
+        <v>5.419411021703</v>
       </c>
       <c r="R11">
-        <v>1791.70803459432</v>
+        <v>48.774699195327</v>
       </c>
       <c r="S11">
-        <v>0.06231687113777409</v>
+        <v>0.001905073320427222</v>
       </c>
       <c r="T11">
-        <v>0.06288881757235396</v>
+        <v>0.001916274203161814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.44622</v>
+        <v>16.184686</v>
       </c>
       <c r="H12">
-        <v>31.33866</v>
+        <v>48.554058</v>
       </c>
       <c r="I12">
-        <v>0.1297530504242576</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J12">
-        <v>0.1307557827152189</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.171044</v>
+        <v>0.1346283333333333</v>
       </c>
       <c r="N12">
-        <v>0.342088</v>
+        <v>0.403885</v>
       </c>
       <c r="O12">
-        <v>0.004310526740231986</v>
+        <v>0.002202644180850053</v>
       </c>
       <c r="P12">
-        <v>0.00287781946607535</v>
+        <v>0.002209497412631127</v>
       </c>
       <c r="Q12">
-        <v>1.78676325368</v>
+        <v>2.178917301703333</v>
       </c>
       <c r="R12">
-        <v>10.72057952208</v>
+        <v>19.61025571533</v>
       </c>
       <c r="S12">
-        <v>0.0005593039934804317</v>
+        <v>0.0007659498794737808</v>
       </c>
       <c r="T12">
-        <v>0.0003762915367997759</v>
+        <v>0.0007704532834575377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.44622</v>
+        <v>16.184686</v>
       </c>
       <c r="H13">
-        <v>31.33866</v>
+        <v>48.554058</v>
       </c>
       <c r="I13">
-        <v>0.1297530504242576</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J13">
-        <v>0.1307557827152189</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>20.30417233333333</v>
+        <v>0.147833</v>
       </c>
       <c r="N13">
-        <v>60.912517</v>
+        <v>0.443499</v>
       </c>
       <c r="O13">
-        <v>0.5116910138976627</v>
+        <v>0.002418684753241189</v>
       </c>
       <c r="P13">
-        <v>0.512427291077868</v>
+        <v>0.00242621016627132</v>
       </c>
       <c r="Q13">
-        <v>212.1018511119133</v>
+        <v>2.392630685438</v>
       </c>
       <c r="R13">
-        <v>1908.91666000722</v>
+        <v>21.533676168942</v>
       </c>
       <c r="S13">
-        <v>0.06639346992790293</v>
+        <v>0.0008410760627325657</v>
       </c>
       <c r="T13">
-        <v>0.06700283152952595</v>
+        <v>0.0008460211712743342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.852196</v>
+        <v>16.184686</v>
       </c>
       <c r="H14">
-        <v>3.704392</v>
+        <v>48.554058</v>
       </c>
       <c r="I14">
-        <v>0.02300622435518382</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J14">
-        <v>0.01545601105612031</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.147833</v>
+        <v>26.727223</v>
       </c>
       <c r="N14">
-        <v>0.443499</v>
+        <v>80.181669</v>
       </c>
       <c r="O14">
-        <v>0.003725579965323047</v>
+        <v>0.4372821140515125</v>
       </c>
       <c r="P14">
-        <v>0.00373094073859636</v>
+        <v>0.438642658667555</v>
       </c>
       <c r="Q14">
-        <v>0.273815691268</v>
+        <v>432.571711906978</v>
       </c>
       <c r="R14">
-        <v>1.642894147608</v>
+        <v>3893.145407162802</v>
       </c>
       <c r="S14">
-        <v>8.571152853539996E-05</v>
+        <v>0.1520609572193981</v>
       </c>
       <c r="T14">
-        <v>5.766546130547501E-05</v>
+        <v>0.1529549999483899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.852196</v>
+        <v>16.184686</v>
       </c>
       <c r="H15">
-        <v>3.704392</v>
+        <v>48.554058</v>
       </c>
       <c r="I15">
-        <v>0.02300622435518382</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J15">
-        <v>0.01545601105612031</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>19.057484</v>
+        <v>0.568742</v>
       </c>
       <c r="N15">
-        <v>57.172452</v>
+        <v>1.137484</v>
       </c>
       <c r="O15">
-        <v>0.4802728793967823</v>
+        <v>0.009305145697698759</v>
       </c>
       <c r="P15">
-        <v>0.4809639487174604</v>
+        <v>0.006222731606544697</v>
       </c>
       <c r="Q15">
-        <v>35.29819563486399</v>
+        <v>9.204910685011999</v>
       </c>
       <c r="R15">
-        <v>211.789173809184</v>
+        <v>55.22946411007199</v>
       </c>
       <c r="S15">
-        <v>0.01104926561511251</v>
+        <v>0.003235781470109143</v>
       </c>
       <c r="T15">
-        <v>0.007433784108972349</v>
+        <v>0.002169870836204399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.852196</v>
+        <v>16.184686</v>
       </c>
       <c r="H16">
-        <v>3.704392</v>
+        <v>48.554058</v>
       </c>
       <c r="I16">
-        <v>0.02300622435518382</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J16">
-        <v>0.01545601105612031</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.171044</v>
+        <v>33.542809</v>
       </c>
       <c r="N16">
-        <v>0.342088</v>
+        <v>100.628427</v>
       </c>
       <c r="O16">
-        <v>0.004310526740231986</v>
+        <v>0.5487914113166975</v>
       </c>
       <c r="P16">
-        <v>0.00287781946607535</v>
+        <v>0.5504989021469979</v>
       </c>
       <c r="Q16">
-        <v>0.316807012624</v>
+        <v>542.879831222974</v>
       </c>
       <c r="R16">
-        <v>1.267228050496</v>
+        <v>4885.918481006765</v>
       </c>
       <c r="S16">
-        <v>9.916894527479622E-05</v>
+        <v>0.1908373213471314</v>
       </c>
       <c r="T16">
-        <v>4.447960948517886E-05</v>
+        <v>0.1919593497934242</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.852196</v>
+        <v>0.3842475</v>
       </c>
       <c r="H17">
-        <v>3.704392</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I17">
-        <v>0.02300622435518382</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J17">
-        <v>0.01545601105612031</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>20.30417233333333</v>
+        <v>0.1346283333333333</v>
       </c>
       <c r="N17">
-        <v>60.912517</v>
+        <v>0.403885</v>
       </c>
       <c r="O17">
-        <v>0.5116910138976627</v>
+        <v>0.002202644180850053</v>
       </c>
       <c r="P17">
-        <v>0.512427291077868</v>
+        <v>0.002209497412631127</v>
       </c>
       <c r="Q17">
-        <v>37.60730677911067</v>
+        <v>0.05173060051249999</v>
       </c>
       <c r="R17">
-        <v>225.643840674664</v>
+        <v>0.310383603075</v>
       </c>
       <c r="S17">
-        <v>0.01177207826626111</v>
+        <v>1.818474119999002E-05</v>
       </c>
       <c r="T17">
-        <v>0.007920081876357307</v>
+        <v>1.219443895030772E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.40323666666667</v>
+        <v>0.3842475</v>
       </c>
       <c r="H18">
-        <v>73.20971</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I18">
-        <v>0.303113891697197</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J18">
-        <v>0.3054563575278647</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,27 +1556,27 @@
         <v>0.443499</v>
       </c>
       <c r="O18">
-        <v>0.003725579965323047</v>
+        <v>0.002418684753241189</v>
       </c>
       <c r="P18">
-        <v>0.00373094073859636</v>
+        <v>0.00242621016627132</v>
       </c>
       <c r="Q18">
-        <v>3.607603686143333</v>
+        <v>0.05680446066749999</v>
       </c>
       <c r="R18">
-        <v>32.46843317529</v>
+        <v>0.3408267640049999</v>
       </c>
       <c r="S18">
-        <v>0.001129275042118177</v>
+        <v>1.996834380443535E-05</v>
       </c>
       <c r="T18">
-        <v>0.001139639568163965</v>
+        <v>1.339049848353498E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.40323666666667</v>
+        <v>0.3842475</v>
       </c>
       <c r="H19">
-        <v>73.20971</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I19">
-        <v>0.303113891697197</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J19">
-        <v>0.3054563575278647</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.057484</v>
+        <v>26.727223</v>
       </c>
       <c r="N19">
-        <v>57.172452</v>
+        <v>80.181669</v>
       </c>
       <c r="O19">
-        <v>0.4802728793967823</v>
+        <v>0.4372821140515125</v>
       </c>
       <c r="P19">
-        <v>0.4809639487174604</v>
+        <v>0.438642658667555</v>
       </c>
       <c r="Q19">
-        <v>465.0642923232134</v>
+        <v>10.2698686196925</v>
       </c>
       <c r="R19">
-        <v>4185.57863090892</v>
+        <v>61.61921171815499</v>
       </c>
       <c r="S19">
-        <v>0.1455773815505772</v>
+        <v>0.003610143728408488</v>
       </c>
       <c r="T19">
-        <v>0.1469134958774541</v>
+        <v>0.002420913050879041</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.40323666666667</v>
+        <v>0.3842475</v>
       </c>
       <c r="H20">
-        <v>73.20971</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I20">
-        <v>0.303113891697197</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J20">
-        <v>0.3054563575278647</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.171044</v>
+        <v>0.568742</v>
       </c>
       <c r="N20">
-        <v>0.342088</v>
+        <v>1.137484</v>
       </c>
       <c r="O20">
-        <v>0.004310526740231986</v>
+        <v>0.009305145697698759</v>
       </c>
       <c r="P20">
-        <v>0.00287781946607535</v>
+        <v>0.006222731606544697</v>
       </c>
       <c r="Q20">
-        <v>4.174027212413334</v>
+        <v>0.218537691645</v>
       </c>
       <c r="R20">
-        <v>25.04416327448</v>
+        <v>0.8741507665799999</v>
       </c>
       <c r="S20">
-        <v>0.00130658053549655</v>
+        <v>7.68220613261056E-05</v>
       </c>
       <c r="T20">
-        <v>0.0008790482517301608</v>
+        <v>3.43438830235137E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.40323666666667</v>
+        <v>0.3842475</v>
       </c>
       <c r="H21">
-        <v>73.20971</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I21">
-        <v>0.303113891697197</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J21">
-        <v>0.3054563575278647</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.30417233333333</v>
+        <v>33.542809</v>
       </c>
       <c r="N21">
-        <v>60.912517</v>
+        <v>100.628427</v>
       </c>
       <c r="O21">
-        <v>0.5116910138976627</v>
+        <v>0.5487914113166975</v>
       </c>
       <c r="P21">
-        <v>0.512427291077868</v>
+        <v>0.5504989021469979</v>
       </c>
       <c r="Q21">
-        <v>495.4875227711189</v>
+        <v>12.8887405012275</v>
       </c>
       <c r="R21">
-        <v>4459.38770494007</v>
+        <v>77.332443007365</v>
       </c>
       <c r="S21">
-        <v>0.155100654569005</v>
+        <v>0.004530749847994076</v>
       </c>
       <c r="T21">
-        <v>0.1565241738305164</v>
+        <v>0.003038258934392209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.491490666666667</v>
+      </c>
+      <c r="H22">
+        <v>22.474472</v>
+      </c>
+      <c r="I22">
+        <v>0.1609607440037482</v>
+      </c>
+      <c r="J22">
+        <v>0.1614049232897091</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1346283333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.403885</v>
+      </c>
+      <c r="O22">
+        <v>0.002202644180850053</v>
+      </c>
+      <c r="P22">
+        <v>0.002209497412631127</v>
+      </c>
+      <c r="Q22">
+        <v>1.008566902635555</v>
+      </c>
+      <c r="R22">
+        <v>9.077102123720001</v>
+      </c>
+      <c r="S22">
+        <v>0.0003545392461251512</v>
+      </c>
+      <c r="T22">
+        <v>0.0003566237603945378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.491490666666667</v>
+      </c>
+      <c r="H23">
+        <v>22.474472</v>
+      </c>
+      <c r="I23">
+        <v>0.1609607440037482</v>
+      </c>
+      <c r="J23">
+        <v>0.1614049232897091</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.147833</v>
+      </c>
+      <c r="N23">
+        <v>0.443499</v>
+      </c>
+      <c r="O23">
+        <v>0.002418684753241189</v>
+      </c>
+      <c r="P23">
+        <v>0.00242621016627132</v>
+      </c>
+      <c r="Q23">
+        <v>1.107489539725333</v>
+      </c>
+      <c r="R23">
+        <v>9.967405857528</v>
+      </c>
+      <c r="S23">
+        <v>0.0003893132973922241</v>
+      </c>
+      <c r="T23">
+        <v>0.0003916022657717349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.491490666666667</v>
+      </c>
+      <c r="H24">
+        <v>22.474472</v>
+      </c>
+      <c r="I24">
+        <v>0.1609607440037482</v>
+      </c>
+      <c r="J24">
+        <v>0.1614049232897091</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.727223</v>
+      </c>
+      <c r="N24">
+        <v>80.181669</v>
+      </c>
+      <c r="O24">
+        <v>0.4372821140515125</v>
+      </c>
+      <c r="P24">
+        <v>0.438642658667555</v>
+      </c>
+      <c r="Q24">
+        <v>200.2267416504187</v>
+      </c>
+      <c r="R24">
+        <v>1802.040674853768</v>
+      </c>
+      <c r="S24">
+        <v>0.07038525441726334</v>
+      </c>
+      <c r="T24">
+        <v>0.07079908467383077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.491490666666667</v>
+      </c>
+      <c r="H25">
+        <v>22.474472</v>
+      </c>
+      <c r="I25">
+        <v>0.1609607440037482</v>
+      </c>
+      <c r="J25">
+        <v>0.1614049232897091</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.568742</v>
+      </c>
+      <c r="N25">
+        <v>1.137484</v>
+      </c>
+      <c r="O25">
+        <v>0.009305145697698759</v>
+      </c>
+      <c r="P25">
+        <v>0.006222731606544697</v>
+      </c>
+      <c r="Q25">
+        <v>4.260725384741334</v>
+      </c>
+      <c r="R25">
+        <v>25.564352308448</v>
+      </c>
+      <c r="S25">
+        <v>0.001497763174564869</v>
+      </c>
+      <c r="T25">
+        <v>0.001004379517606795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.491490666666667</v>
+      </c>
+      <c r="H26">
+        <v>22.474472</v>
+      </c>
+      <c r="I26">
+        <v>0.1609607440037482</v>
+      </c>
+      <c r="J26">
+        <v>0.1614049232897091</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>33.542809</v>
+      </c>
+      <c r="N26">
+        <v>100.628427</v>
+      </c>
+      <c r="O26">
+        <v>0.5487914113166975</v>
+      </c>
+      <c r="P26">
+        <v>0.5504989021469979</v>
+      </c>
+      <c r="Q26">
+        <v>251.2856405572827</v>
+      </c>
+      <c r="R26">
+        <v>2261.570765015544</v>
+      </c>
+      <c r="S26">
+        <v>0.08833387386840265</v>
+      </c>
+      <c r="T26">
+        <v>0.08885323307210528</v>
       </c>
     </row>
   </sheetData>
